--- a/biology/Zoologie/Fabia_(crabe)/Fabia_(crabe).xlsx
+++ b/biology/Zoologie/Fabia_(crabe)/Fabia_(crabe).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fabia est un genre de crabe symbiotique de la famille des Pinnotheridae[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabia est un genre de crabe symbiotique de la famille des Pinnotheridae,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Atlantique ouest, de la Floride au Brésil et dans le Pacifique de l'Alaska au Mexique, ainsi qu'en mer de Chine méridionale.
 </t>
@@ -542,7 +556,9 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles sont symbiotique de Mollusques bivalves et gastéropodes ainsi que des vers polychètes.
 </t>
@@ -573,7 +589,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fabia byssomiae (Say, 1818)
 Fabia canfieldi (Rathbun, 1918)
@@ -611,7 +629,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dana, 1851 : On the classification of the Crustacea Grapsoidea. American Journal of Science and Arts, ser. 2, vol. 12, p. 283–291.</t>
         </is>
